--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6857895834986604</v>
+        <v>4041.375937365727</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6857895834986597</v>
+        <v>4041.375937365723</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6857895834986597</v>
+        <v>4041.375937365723</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.959398809996169</v>
+        <v>11546.78839247327</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.959398809996169</v>
+        <v>11546.78839247327</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>949.8875726728809</v>
+        <v>2062.858975181512</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>949.8875726728802</v>
+        <v>2062.85897518151</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.81414217987393</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>784.1178665143931</v>
+        <v>1702.85897518151</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.81414217987393</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11051.31374389914</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15302.01770925734</v>
+        <v>17835.43650000022</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15302.01770925734</v>
+        <v>17835.43650000022</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>165.7697061584871</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3112.629295829287</v>
+        <v>186262.6104983193</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3112.629295829285</v>
+        <v>186262.6104983191</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62.25258591658712</v>
+        <v>3725.252209966534</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62.25258591658712</v>
+        <v>3725.252209966534</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3112.629295829285</v>
+        <v>186262.6104983191</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2021.759999999986</v>
+        <v>20217.59999999952</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2021.759999999986</v>
+        <v>20217.59999999952</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-658.7571142139425</v>
+        <v>-452.7745246309626</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-658.7571142139418</v>
+        <v>-452.7745246309621</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>658.7571142139418</v>
+        <v>452.7745246309621</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13175.14228427892</v>
+        <v>9055.490492619159</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13175.14228427892</v>
+        <v>9055.490492619159</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4041.375937365727</v>
+        <v>4058.788976559438</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4041.375937365723</v>
+        <v>4058.788976559434</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4041.375937365723</v>
+        <v>4058.788976559434</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11546.78839247327</v>
+        <v>11596.53993302689</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11546.78839247327</v>
+        <v>11596.53993302689</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2062.858975181512</v>
+        <v>1856.573077663361</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2062.85897518151</v>
+        <v>1856.573077663359</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1702.85897518151</v>
+        <v>1532.573077663359</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17835.43650000022</v>
+        <v>15785.03079000041</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17835.43650000022</v>
+        <v>15785.03079000041</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>186262.6104983193</v>
+        <v>186936.8792052546</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>186262.6104983191</v>
+        <v>186936.8792052545</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3725.252209966534</v>
+        <v>3738.737584105171</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3725.252209966534</v>
+        <v>3738.737584105171</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>186262.6104983191</v>
+        <v>186936.8792052545</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.59999999952</v>
+        <v>20217.59999999949</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.59999999952</v>
+        <v>20217.59999999949</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-452.7745246309626</v>
+        <v>-352.4795252122792</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-452.7745246309621</v>
+        <v>-352.4795252122789</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>452.7745246309621</v>
+        <v>352.4795252122789</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9055.490492619159</v>
+        <v>7049.590504245611</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9055.490492619159</v>
+        <v>7049.590504245611</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4058.788976559438</v>
+        <v>4624.449081662315</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4058.788976559434</v>
+        <v>4624.44908166231</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4058.788976559434</v>
+        <v>4624.44908166231</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11596.53993302689</v>
+        <v>13212.71166189251</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11596.53993302689</v>
+        <v>13212.71166189251</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1856.573077663361</v>
+        <v>742.3338266865285</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1856.573077663359</v>
+        <v>742.3338266865279</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>10.7957039567556</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1532.573077663359</v>
+        <v>612.7853792054607</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>10.7957039567556</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21600</v>
+        <v>8636.563165404481</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15785.03079000041</v>
+        <v>9293.529036356393</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15785.03079000041</v>
+        <v>9293.529036356393</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>324</v>
+        <v>129.5484474810672</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>186936.8792052546</v>
+        <v>208742.9955873798</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>186936.8792052545</v>
+        <v>208742.9955873796</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3738.737584105171</v>
+        <v>4174.859911747636</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3738.737584105171</v>
+        <v>4174.859911747636</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>186936.8792052545</v>
+        <v>208742.9955873796</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.59999999949</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.59999999949</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-352.4795252122792</v>
+        <v>-109.9332197290953</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-352.4795252122789</v>
+        <v>-109.9332197290952</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>352.4795252122789</v>
+        <v>109.9332197290952</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7049.590504245611</v>
+        <v>2198.6643945819</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7049.590504245611</v>
+        <v>2198.6643945819</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4624.449081662315</v>
+        <v>6556.266582378041</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4624.44908166231</v>
+        <v>6556.266582378034</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4624.44908166231</v>
+        <v>6556.266582378034</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13212.71166189251</v>
+        <v>18732.19023536615</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13212.71166189251</v>
+        <v>18732.19023536615</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>742.3338266865285</v>
+        <v>2062.858975181512</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>742.3338266865279</v>
+        <v>2062.85897518151</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.7957039567556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>612.7853792054607</v>
+        <v>1702.85897518151</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.7957039567556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8636.563165404481</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9293.529036356393</v>
+        <v>1485.548159853576</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9293.529036356393</v>
+        <v>1485.548159853576</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>129.5484474810672</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>208742.9955873798</v>
+        <v>283211.0373750483</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>208742.9955873796</v>
+        <v>283211.037375048</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4174.859911747636</v>
+        <v>5664.220747500913</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4174.859911747636</v>
+        <v>5664.220747500913</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>208742.9955873796</v>
+        <v>283211.037375048</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.59999999929</v>
+        <v>20217.60000000103</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.59999999929</v>
+        <v>20217.60000000103</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-109.9332197290953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-109.9332197290952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109.9332197290952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2198.6643945819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2198.6643945819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6556.266582378041</v>
+        <v>3010.810655632908</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6556.266582378034</v>
+        <v>3010.810655632904</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6556.266582378034</v>
+        <v>3010.810655632904</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18732.19023536615</v>
+        <v>8602.31615895128</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18732.19023536615</v>
+        <v>8602.31615895128</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2062.858975181512</v>
+        <v>6876.196583938373</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2062.85897518151</v>
+        <v>6876.196583938367</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1702.85897518151</v>
+        <v>5676.196583938367</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1485.548159853576</v>
+        <v>87304.42145456493</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1485.548159853576</v>
+        <v>87304.42145456493</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>283211.0373750483</v>
+        <v>146534.5821035772</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>283211.037375048</v>
+        <v>146534.582103577</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5664.220747500913</v>
+        <v>2930.691642071566</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5664.220747500913</v>
+        <v>2930.691642071566</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>283211.037375048</v>
+        <v>146534.582103577</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.60000000103</v>
+        <v>20217.60000000038</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.60000000103</v>
+        <v>20217.60000000038</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-3776.765484902219</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-3776.765484902216</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3776.765484902216</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>75535.30969804428</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>75535.30969804428</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3010.810655632908</v>
+        <v>2926.799320310989</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3010.810655632904</v>
+        <v>2926.799320310986</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3010.810655632904</v>
+        <v>2926.799320310986</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8602.31615895128</v>
+        <v>8362.283772317136</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8602.31615895128</v>
+        <v>8362.283772317136</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6876.196583938373</v>
+        <v>9168.262111917831</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6876.196583938367</v>
+        <v>9168.262111917824</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5676.196583938367</v>
+        <v>7568.262111917824</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80000</v>
+        <v>106666.6666666667</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>87304.42145456493</v>
+        <v>121802.6639999999</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>87304.42145456493</v>
+        <v>121802.6639999999</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>146534.5821035772</v>
+        <v>143294.1379324235</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>146534.582103577</v>
+        <v>143294.1379324234</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2930.691642071566</v>
+        <v>2865.882758648496</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2930.691642071566</v>
+        <v>2865.882758648496</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>146534.582103577</v>
+        <v>143294.1379324234</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.60000000038</v>
+        <v>20217.59999999971</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.60000000038</v>
+        <v>20217.59999999971</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-3776.765484902219</v>
+        <v>-5489.676688001595</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-3776.765484902216</v>
+        <v>-5489.676688001589</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3776.765484902216</v>
+        <v>5489.676688001589</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>75535.30969804428</v>
+        <v>109793.5337600332</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>75535.30969804428</v>
+        <v>109793.5337600332</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2926.799320310989</v>
+        <v>3053.371704751997</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2926.799320310986</v>
+        <v>3053.371704751994</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2926.799320310986</v>
+        <v>3053.371704751994</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8362.283772317136</v>
+        <v>8723.919156434198</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8362.283772317136</v>
+        <v>8723.919156434198</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9168.262111917831</v>
+        <v>6876.196583938373</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9168.262111917824</v>
+        <v>6876.196583938367</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>133.3333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7568.262111917824</v>
+        <v>5676.196583938367</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>133.3333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>106666.6666666667</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>121802.6639999999</v>
+        <v>89076.78952001187</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>121802.6639999999</v>
+        <v>89076.78952001187</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>143294.1379324235</v>
+        <v>148176.208985743</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>143294.1379324234</v>
+        <v>148176.2089857429</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2865.882758648496</v>
+        <v>2963.524179714889</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2865.882758648496</v>
+        <v>2963.524179714889</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>143294.1379324234</v>
+        <v>148176.2089857429</v>
       </c>
     </row>
     <row r="31">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-5489.676688001595</v>
+        <v>-3871.465396434346</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-5489.676688001589</v>
+        <v>-3871.465396434342</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5489.676688001589</v>
+        <v>3871.465396434342</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>109793.5337600332</v>
+        <v>77429.30792868507</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>109793.5337600332</v>
+        <v>77429.30792868507</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3053.371704751997</v>
+        <v>3090.974289607632</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3053.371704751994</v>
+        <v>3090.97428960763</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3053.371704751994</v>
+        <v>3090.97428960763</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8723.919156434198</v>
+        <v>8831.355113164813</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8723.919156434198</v>
+        <v>8831.355113164813</v>
       </c>
     </row>
     <row r="8">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>89076.78952001187</v>
+        <v>79354.61403309148</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>89076.78952001187</v>
+        <v>79354.61403309148</v>
       </c>
     </row>
     <row r="21">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>148176.208985743</v>
+        <v>149626.5932405632</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>148176.2089857429</v>
+        <v>149626.593240563</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2963.524179714889</v>
+        <v>2992.531864811288</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2963.524179714889</v>
+        <v>2992.531864811288</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>148176.2089857429</v>
+        <v>149626.593240563</v>
       </c>
     </row>
     <row r="31">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-3871.465396434346</v>
+        <v>-3390.728536028876</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-3871.465396434342</v>
+        <v>-3390.728536028873</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3871.465396434342</v>
+        <v>3390.728536028873</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>77429.30792868507</v>
+        <v>67814.57072057677</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>77429.30792868507</v>
+        <v>67814.57072057677</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3090.974289607632</v>
+        <v>4587.052556530442</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3090.97428960763</v>
+        <v>4587.052556530438</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3090.97428960763</v>
+        <v>4587.052556530438</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8831.355113164813</v>
+        <v>13105.86444722955</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8831.355113164813</v>
+        <v>13105.86444722955</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6876.196583938373</v>
+        <v>1269.52664843566</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6876.196583938367</v>
+        <v>1269.526648435659</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>18.46262876487648</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5676.196583938367</v>
+        <v>1047.975103257141</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>18.46262876487648</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80000</v>
+        <v>14770.10301190118</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79354.61403309148</v>
+        <v>11888.26840371751</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79354.61403309148</v>
+        <v>11888.26840371751</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1200</v>
+        <v>221.5515451785177</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>149626.5932405632</v>
+        <v>207268.5707538992</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>149626.593240563</v>
+        <v>207268.570753899</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2992.531864811288</v>
+        <v>4145.371415078048</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2992.531864811288</v>
+        <v>4145.371415078048</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>149626.593240563</v>
+        <v>207268.570753899</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.59999999971</v>
+        <v>20217.60000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.59999999971</v>
+        <v>20217.60000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-3390.728536028876</v>
+        <v>-237.5265709177201</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-3390.728536028873</v>
+        <v>-237.5265709177199</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3390.728536028873</v>
+        <v>237.5265709177199</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>67814.57072057677</v>
+        <v>4750.531418354351</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>67814.57072057677</v>
+        <v>4750.531418354351</v>
       </c>
     </row>
     <row r="44">

--- a/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/SourceSinkModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4587.052556530442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4587.052556530438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4587.052556530438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13105.86444722955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13105.86444722955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1269.52664843566</v>
+        <v>11186.53241152766</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1269.526648435659</v>
+        <v>11186.53241152765</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.46262876487648</v>
+        <v>162.6848836413069</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1047.975103257141</v>
+        <v>9234.31380783197</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.46262876487648</v>
+        <v>162.6848836413069</v>
       </c>
     </row>
     <row r="14">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14770.10301190118</v>
+        <v>130147.9069130455</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11888.26840371751</v>
+        <v>143934.1102782082</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11888.26840371751</v>
+        <v>143934.1102782082</v>
       </c>
     </row>
     <row r="21">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221.5515451785177</v>
+        <v>1952.218603695683</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>207268.5707538992</v>
+        <v>30801.87040944644</v>
       </c>
     </row>
     <row r="25">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>207268.570753899</v>
+        <v>30801.87040944641</v>
       </c>
     </row>
     <row r="26">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4145.371415078048</v>
+        <v>616.0374081889174</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4145.371415078048</v>
+        <v>616.0374081889174</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>207268.570753899</v>
+        <v>30801.87040944641</v>
       </c>
     </row>
     <row r="31">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20217.60000000001</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="36">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20217.60000000001</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-237.5265709177201</v>
+        <v>-6138.278472965609</v>
       </c>
     </row>
     <row r="39">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-237.5265709177199</v>
+        <v>-6138.278472965603</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>237.5265709177199</v>
+        <v>6138.278472965603</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4750.531418354351</v>
+        <v>122765.5694593122</v>
       </c>
     </row>
     <row r="43">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4750.531418354351</v>
+        <v>122765.5694593122</v>
       </c>
     </row>
     <row r="44">
